--- a/experiments/evaluation/llm-seed/roberta-base_15/rem-100_remove/rem5/99/word_level_predictions_99.xlsx
+++ b/experiments/evaluation/llm-seed/roberta-base_15/rem-100_remove/rem5/99/word_level_predictions_99.xlsx
@@ -3518,262 +3518,262 @@
       </c>
     </row>
     <row r="60">
-      <c r="A60" t="n">
+      <c r="A60" s="2" t="n">
         <v>2</v>
       </c>
-      <c r="B60" t="inlineStr">
+      <c r="B60" s="2" t="inlineStr">
         <is>
           <t>GPS signal low Aircraft unable to auto hover and takeoff restricted Move to environment with adequate light Unlocking takeoff restrictions not recommended .</t>
         </is>
       </c>
-      <c r="C60" t="inlineStr">
+      <c r="C60" s="2" t="inlineStr">
         <is>
           <t>Unlocking</t>
         </is>
       </c>
-      <c r="D60" t="n">
+      <c r="D60" s="2" t="n">
         <v>17</v>
       </c>
-      <c r="E60" t="inlineStr">
+      <c r="E60" s="2" t="inlineStr">
         <is>
           <t>B-Event</t>
         </is>
       </c>
-      <c r="F60" t="inlineStr">
-        <is>
-          <t>B-Event</t>
-        </is>
-      </c>
-      <c r="G60" t="b">
-        <v>1</v>
-      </c>
-      <c r="H60" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I60" t="b">
-        <v>1</v>
-      </c>
-      <c r="J60" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="K60" t="b">
-        <v>1</v>
-      </c>
-      <c r="L60" t="inlineStr">
-        <is>
-          <t>Correct</t>
+      <c r="F60" s="2" t="inlineStr">
+        <is>
+          <t>B-NonEvent</t>
+        </is>
+      </c>
+      <c r="G60" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H60" s="2" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I60" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="J60" s="2" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K60" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L60" s="2" t="inlineStr">
+        <is>
+          <t>Wrong_Entity_Event_as_NonEvent</t>
         </is>
       </c>
     </row>
     <row r="61">
-      <c r="A61" t="n">
+      <c r="A61" s="2" t="n">
         <v>2</v>
       </c>
-      <c r="B61" t="inlineStr">
+      <c r="B61" s="2" t="inlineStr">
         <is>
           <t>GPS signal low Aircraft unable to auto hover and takeoff restricted Move to environment with adequate light Unlocking takeoff restrictions not recommended .</t>
         </is>
       </c>
-      <c r="C61" t="inlineStr">
+      <c r="C61" s="2" t="inlineStr">
         <is>
           <t>takeoff</t>
         </is>
       </c>
-      <c r="D61" t="n">
+      <c r="D61" s="2" t="n">
         <v>18</v>
       </c>
-      <c r="E61" t="inlineStr">
+      <c r="E61" s="2" t="inlineStr">
         <is>
           <t>I-Event</t>
         </is>
       </c>
-      <c r="F61" t="inlineStr">
+      <c r="F61" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G61" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H61" s="2" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I61" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="J61" s="2" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K61" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L61" s="2" t="inlineStr">
+        <is>
+          <t>Wrong_Entity_Event_as_NonEvent</t>
+        </is>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B62" s="2" t="inlineStr">
+        <is>
+          <t>GPS signal low Aircraft unable to auto hover and takeoff restricted Move to environment with adequate light Unlocking takeoff restrictions not recommended .</t>
+        </is>
+      </c>
+      <c r="C62" s="2" t="inlineStr">
+        <is>
+          <t>restrictions</t>
+        </is>
+      </c>
+      <c r="D62" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="E62" s="2" t="inlineStr">
         <is>
           <t>I-Event</t>
         </is>
       </c>
-      <c r="G61" t="b">
-        <v>1</v>
-      </c>
-      <c r="H61" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I61" t="b">
-        <v>1</v>
-      </c>
-      <c r="J61" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="K61" t="b">
-        <v>1</v>
-      </c>
-      <c r="L61" t="inlineStr">
-        <is>
-          <t>Correct</t>
-        </is>
-      </c>
-    </row>
-    <row r="62">
-      <c r="A62" t="n">
+      <c r="F62" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G62" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H62" s="2" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I62" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="J62" s="2" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K62" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L62" s="2" t="inlineStr">
+        <is>
+          <t>Wrong_Entity_Event_as_NonEvent</t>
+        </is>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" s="2" t="n">
         <v>2</v>
       </c>
-      <c r="B62" t="inlineStr">
+      <c r="B63" s="2" t="inlineStr">
         <is>
           <t>GPS signal low Aircraft unable to auto hover and takeoff restricted Move to environment with adequate light Unlocking takeoff restrictions not recommended .</t>
         </is>
       </c>
-      <c r="C62" t="inlineStr">
-        <is>
-          <t>restrictions</t>
-        </is>
-      </c>
-      <c r="D62" t="n">
-        <v>19</v>
-      </c>
-      <c r="E62" t="inlineStr">
+      <c r="C63" s="2" t="inlineStr">
+        <is>
+          <t>not</t>
+        </is>
+      </c>
+      <c r="D63" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="E63" s="2" t="inlineStr">
         <is>
           <t>I-Event</t>
         </is>
       </c>
-      <c r="F62" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="G62" t="b">
-        <v>1</v>
-      </c>
-      <c r="H62" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I62" t="b">
-        <v>1</v>
-      </c>
-      <c r="J62" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="K62" t="b">
-        <v>1</v>
-      </c>
-      <c r="L62" t="inlineStr">
-        <is>
-          <t>Correct</t>
-        </is>
-      </c>
-    </row>
-    <row r="63">
-      <c r="A63" t="n">
+      <c r="F63" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G63" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H63" s="2" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I63" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="J63" s="2" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K63" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L63" s="2" t="inlineStr">
+        <is>
+          <t>Wrong_Entity_Event_as_NonEvent</t>
+        </is>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" s="2" t="n">
         <v>2</v>
       </c>
-      <c r="B63" t="inlineStr">
+      <c r="B64" s="2" t="inlineStr">
         <is>
           <t>GPS signal low Aircraft unable to auto hover and takeoff restricted Move to environment with adequate light Unlocking takeoff restrictions not recommended .</t>
         </is>
       </c>
-      <c r="C63" t="inlineStr">
-        <is>
-          <t>not</t>
-        </is>
-      </c>
-      <c r="D63" t="n">
-        <v>20</v>
-      </c>
-      <c r="E63" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="F63" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="G63" t="b">
-        <v>1</v>
-      </c>
-      <c r="H63" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I63" t="b">
-        <v>1</v>
-      </c>
-      <c r="J63" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="K63" t="b">
-        <v>1</v>
-      </c>
-      <c r="L63" t="inlineStr">
-        <is>
-          <t>Correct</t>
-        </is>
-      </c>
-    </row>
-    <row r="64">
-      <c r="A64" t="n">
-        <v>2</v>
-      </c>
-      <c r="B64" t="inlineStr">
-        <is>
-          <t>GPS signal low Aircraft unable to auto hover and takeoff restricted Move to environment with adequate light Unlocking takeoff restrictions not recommended .</t>
-        </is>
-      </c>
-      <c r="C64" t="inlineStr">
+      <c r="C64" s="2" t="inlineStr">
         <is>
           <t>recommended</t>
         </is>
       </c>
-      <c r="D64" t="n">
+      <c r="D64" s="2" t="n">
         <v>21</v>
       </c>
-      <c r="E64" t="inlineStr">
+      <c r="E64" s="2" t="inlineStr">
         <is>
           <t>E-Event</t>
         </is>
       </c>
-      <c r="F64" t="inlineStr">
-        <is>
-          <t>E-Event</t>
-        </is>
-      </c>
-      <c r="G64" t="b">
-        <v>1</v>
-      </c>
-      <c r="H64" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I64" t="b">
-        <v>1</v>
-      </c>
-      <c r="J64" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="K64" t="b">
-        <v>1</v>
-      </c>
-      <c r="L64" t="inlineStr">
-        <is>
-          <t>Correct</t>
+      <c r="F64" s="2" t="inlineStr">
+        <is>
+          <t>E-NonEvent</t>
+        </is>
+      </c>
+      <c r="G64" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H64" s="2" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I64" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="J64" s="2" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K64" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L64" s="2" t="inlineStr">
+        <is>
+          <t>Wrong_Entity_Event_as_NonEvent</t>
         </is>
       </c>
     </row>
@@ -9365,7 +9365,7 @@
       </c>
       <c r="F172" s="2" t="inlineStr">
         <is>
-          <t>I-NonEvent</t>
+          <t>B-NonEvent</t>
         </is>
       </c>
       <c r="G172" s="2" t="b">
@@ -9389,7 +9389,7 @@
       </c>
       <c r="L172" s="2" t="inlineStr">
         <is>
-          <t>Correct</t>
+          <t>Wrong_Tag_I_as_B</t>
         </is>
       </c>
     </row>
@@ -9417,7 +9417,7 @@
       </c>
       <c r="F173" s="2" t="inlineStr">
         <is>
-          <t>B-Event</t>
+          <t>I-NonEvent</t>
         </is>
       </c>
       <c r="G173" s="2" t="b">
@@ -9441,7 +9441,7 @@
       </c>
       <c r="L173" s="2" t="inlineStr">
         <is>
-          <t>Wrong_Entity_NonEvent_as_Event</t>
+          <t>Correct</t>
         </is>
       </c>
     </row>
@@ -9521,7 +9521,7 @@
       </c>
       <c r="F175" s="2" t="inlineStr">
         <is>
-          <t>E-NonEvent</t>
+          <t>E-Event</t>
         </is>
       </c>
       <c r="G175" s="2" t="b">
@@ -9545,7 +9545,7 @@
       </c>
       <c r="L175" s="2" t="inlineStr">
         <is>
-          <t>Correct</t>
+          <t>Wrong_Entity_NonEvent_as_Event</t>
         </is>
       </c>
     </row>

--- a/experiments/evaluation/llm-seed/roberta-base_15/rem-100_remove/rem5/99/word_level_predictions_99.xlsx
+++ b/experiments/evaluation/llm-seed/roberta-base_15/rem-100_remove/rem5/99/word_level_predictions_99.xlsx
@@ -3518,262 +3518,262 @@
       </c>
     </row>
     <row r="60">
-      <c r="A60" s="2" t="n">
+      <c r="A60" t="n">
         <v>2</v>
       </c>
-      <c r="B60" s="2" t="inlineStr">
+      <c r="B60" t="inlineStr">
         <is>
           <t>GPS signal low Aircraft unable to auto hover and takeoff restricted Move to environment with adequate light Unlocking takeoff restrictions not recommended .</t>
         </is>
       </c>
-      <c r="C60" s="2" t="inlineStr">
+      <c r="C60" t="inlineStr">
         <is>
           <t>Unlocking</t>
         </is>
       </c>
-      <c r="D60" s="2" t="n">
+      <c r="D60" t="n">
         <v>17</v>
       </c>
-      <c r="E60" s="2" t="inlineStr">
+      <c r="E60" t="inlineStr">
         <is>
           <t>B-Event</t>
         </is>
       </c>
-      <c r="F60" s="2" t="inlineStr">
-        <is>
-          <t>B-NonEvent</t>
-        </is>
-      </c>
-      <c r="G60" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H60" s="2" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I60" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="J60" s="2" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="K60" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L60" s="2" t="inlineStr">
-        <is>
-          <t>Wrong_Entity_Event_as_NonEvent</t>
+      <c r="F60" t="inlineStr">
+        <is>
+          <t>B-Event</t>
+        </is>
+      </c>
+      <c r="G60" t="b">
+        <v>1</v>
+      </c>
+      <c r="H60" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I60" t="b">
+        <v>1</v>
+      </c>
+      <c r="J60" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K60" t="b">
+        <v>1</v>
+      </c>
+      <c r="L60" t="inlineStr">
+        <is>
+          <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="61">
-      <c r="A61" s="2" t="n">
+      <c r="A61" t="n">
         <v>2</v>
       </c>
-      <c r="B61" s="2" t="inlineStr">
+      <c r="B61" t="inlineStr">
         <is>
           <t>GPS signal low Aircraft unable to auto hover and takeoff restricted Move to environment with adequate light Unlocking takeoff restrictions not recommended .</t>
         </is>
       </c>
-      <c r="C61" s="2" t="inlineStr">
+      <c r="C61" t="inlineStr">
         <is>
           <t>takeoff</t>
         </is>
       </c>
-      <c r="D61" s="2" t="n">
+      <c r="D61" t="n">
         <v>18</v>
       </c>
-      <c r="E61" s="2" t="inlineStr">
+      <c r="E61" t="inlineStr">
         <is>
           <t>I-Event</t>
         </is>
       </c>
-      <c r="F61" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G61" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H61" s="2" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I61" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="J61" s="2" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="K61" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L61" s="2" t="inlineStr">
-        <is>
-          <t>Wrong_Entity_Event_as_NonEvent</t>
+      <c r="F61" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="G61" t="b">
+        <v>1</v>
+      </c>
+      <c r="H61" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I61" t="b">
+        <v>1</v>
+      </c>
+      <c r="J61" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K61" t="b">
+        <v>1</v>
+      </c>
+      <c r="L61" t="inlineStr">
+        <is>
+          <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="62">
-      <c r="A62" s="2" t="n">
+      <c r="A62" t="n">
         <v>2</v>
       </c>
-      <c r="B62" s="2" t="inlineStr">
+      <c r="B62" t="inlineStr">
         <is>
           <t>GPS signal low Aircraft unable to auto hover and takeoff restricted Move to environment with adequate light Unlocking takeoff restrictions not recommended .</t>
         </is>
       </c>
-      <c r="C62" s="2" t="inlineStr">
+      <c r="C62" t="inlineStr">
         <is>
           <t>restrictions</t>
         </is>
       </c>
-      <c r="D62" s="2" t="n">
+      <c r="D62" t="n">
         <v>19</v>
       </c>
-      <c r="E62" s="2" t="inlineStr">
+      <c r="E62" t="inlineStr">
         <is>
           <t>I-Event</t>
         </is>
       </c>
-      <c r="F62" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G62" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H62" s="2" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I62" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="J62" s="2" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="K62" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L62" s="2" t="inlineStr">
-        <is>
-          <t>Wrong_Entity_Event_as_NonEvent</t>
+      <c r="F62" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="G62" t="b">
+        <v>1</v>
+      </c>
+      <c r="H62" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I62" t="b">
+        <v>1</v>
+      </c>
+      <c r="J62" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K62" t="b">
+        <v>1</v>
+      </c>
+      <c r="L62" t="inlineStr">
+        <is>
+          <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="63">
-      <c r="A63" s="2" t="n">
+      <c r="A63" t="n">
         <v>2</v>
       </c>
-      <c r="B63" s="2" t="inlineStr">
+      <c r="B63" t="inlineStr">
         <is>
           <t>GPS signal low Aircraft unable to auto hover and takeoff restricted Move to environment with adequate light Unlocking takeoff restrictions not recommended .</t>
         </is>
       </c>
-      <c r="C63" s="2" t="inlineStr">
+      <c r="C63" t="inlineStr">
         <is>
           <t>not</t>
         </is>
       </c>
-      <c r="D63" s="2" t="n">
+      <c r="D63" t="n">
         <v>20</v>
       </c>
-      <c r="E63" s="2" t="inlineStr">
+      <c r="E63" t="inlineStr">
         <is>
           <t>I-Event</t>
         </is>
       </c>
-      <c r="F63" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G63" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H63" s="2" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I63" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="J63" s="2" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="K63" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L63" s="2" t="inlineStr">
-        <is>
-          <t>Wrong_Entity_Event_as_NonEvent</t>
+      <c r="F63" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="G63" t="b">
+        <v>1</v>
+      </c>
+      <c r="H63" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I63" t="b">
+        <v>1</v>
+      </c>
+      <c r="J63" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K63" t="b">
+        <v>1</v>
+      </c>
+      <c r="L63" t="inlineStr">
+        <is>
+          <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="64">
-      <c r="A64" s="2" t="n">
+      <c r="A64" t="n">
         <v>2</v>
       </c>
-      <c r="B64" s="2" t="inlineStr">
+      <c r="B64" t="inlineStr">
         <is>
           <t>GPS signal low Aircraft unable to auto hover and takeoff restricted Move to environment with adequate light Unlocking takeoff restrictions not recommended .</t>
         </is>
       </c>
-      <c r="C64" s="2" t="inlineStr">
+      <c r="C64" t="inlineStr">
         <is>
           <t>recommended</t>
         </is>
       </c>
-      <c r="D64" s="2" t="n">
+      <c r="D64" t="n">
         <v>21</v>
       </c>
-      <c r="E64" s="2" t="inlineStr">
+      <c r="E64" t="inlineStr">
         <is>
           <t>E-Event</t>
         </is>
       </c>
-      <c r="F64" s="2" t="inlineStr">
-        <is>
-          <t>E-NonEvent</t>
-        </is>
-      </c>
-      <c r="G64" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H64" s="2" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I64" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="J64" s="2" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="K64" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L64" s="2" t="inlineStr">
-        <is>
-          <t>Wrong_Entity_Event_as_NonEvent</t>
+      <c r="F64" t="inlineStr">
+        <is>
+          <t>E-Event</t>
+        </is>
+      </c>
+      <c r="G64" t="b">
+        <v>1</v>
+      </c>
+      <c r="H64" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I64" t="b">
+        <v>1</v>
+      </c>
+      <c r="J64" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K64" t="b">
+        <v>1</v>
+      </c>
+      <c r="L64" t="inlineStr">
+        <is>
+          <t>Correct</t>
         </is>
       </c>
     </row>
@@ -9365,7 +9365,7 @@
       </c>
       <c r="F172" s="2" t="inlineStr">
         <is>
-          <t>B-NonEvent</t>
+          <t>I-NonEvent</t>
         </is>
       </c>
       <c r="G172" s="2" t="b">
@@ -9389,7 +9389,7 @@
       </c>
       <c r="L172" s="2" t="inlineStr">
         <is>
-          <t>Wrong_Tag_I_as_B</t>
+          <t>Correct</t>
         </is>
       </c>
     </row>
@@ -9417,7 +9417,7 @@
       </c>
       <c r="F173" s="2" t="inlineStr">
         <is>
-          <t>I-NonEvent</t>
+          <t>B-Event</t>
         </is>
       </c>
       <c r="G173" s="2" t="b">
@@ -9441,7 +9441,7 @@
       </c>
       <c r="L173" s="2" t="inlineStr">
         <is>
-          <t>Correct</t>
+          <t>Wrong_Entity_NonEvent_as_Event</t>
         </is>
       </c>
     </row>
@@ -9521,7 +9521,7 @@
       </c>
       <c r="F175" s="2" t="inlineStr">
         <is>
-          <t>E-Event</t>
+          <t>E-NonEvent</t>
         </is>
       </c>
       <c r="G175" s="2" t="b">
@@ -9545,7 +9545,7 @@
       </c>
       <c r="L175" s="2" t="inlineStr">
         <is>
-          <t>Wrong_Entity_NonEvent_as_Event</t>
+          <t>Correct</t>
         </is>
       </c>
     </row>
